--- a/tables/TableS4_phylo_model_comparison_final.xlsx
+++ b/tables/TableS4_phylo_model_comparison_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E23FF7D-CD8B-454A-A7EA-ED702195A2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D916158-BDDA-1E45-86CD-57ECE45E7D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31600" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15980" yWindow="1780" windowWidth="31600" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,60 +25,12 @@
     <t>Taxanomically nested random effects</t>
   </si>
   <si>
-    <t>-219.1 (9.7)</t>
-  </si>
-  <si>
-    <t>438.2 (19.5)</t>
-  </si>
-  <si>
-    <t>30.8 (3.8)</t>
-  </si>
-  <si>
-    <t>0.71 (0.65-0.76)</t>
-  </si>
-  <si>
     <t>Non-phylogenetic random effects</t>
   </si>
   <si>
-    <t>-221.5 (10.2)</t>
-  </si>
-  <si>
-    <t>443 (20.3)</t>
-  </si>
-  <si>
-    <t>32.7 (4.6)</t>
-  </si>
-  <si>
-    <t>0.7 (0.64-0.75)</t>
-  </si>
-  <si>
     <t>Phylogenetic random effects</t>
   </si>
   <si>
-    <t>-223.4 (10)</t>
-  </si>
-  <si>
-    <t>446.8 (19.9)</t>
-  </si>
-  <si>
-    <t>30.8 (4.8)</t>
-  </si>
-  <si>
-    <t>0.69 (0.61-0.74)</t>
-  </si>
-  <si>
-    <t>-251.8 (10)</t>
-  </si>
-  <si>
-    <t>503.6 (20.1)</t>
-  </si>
-  <si>
-    <t>14 (1.8)</t>
-  </si>
-  <si>
-    <t>0.48 (0.39-0.55)</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -98,6 +50,54 @@
   </si>
   <si>
     <t>Fixed effects only</t>
+  </si>
+  <si>
+    <t>-229.4 (9.2)</t>
+  </si>
+  <si>
+    <t>458.8 (18.3)</t>
+  </si>
+  <si>
+    <t>27 (2.6)</t>
+  </si>
+  <si>
+    <t>0.67 (0.6-0.72)</t>
+  </si>
+  <si>
+    <t>-229.7 (9)</t>
+  </si>
+  <si>
+    <t>459.4 (18.1)</t>
+  </si>
+  <si>
+    <t>26.9 (2.5)</t>
+  </si>
+  <si>
+    <t>0.66 (0.59-0.71)</t>
+  </si>
+  <si>
+    <t>-230.8 (9.2)</t>
+  </si>
+  <si>
+    <t>461.5 (18.5)</t>
+  </si>
+  <si>
+    <t>25.1 (2.6)</t>
+  </si>
+  <si>
+    <t>0.65 (0.57-0.71)</t>
+  </si>
+  <si>
+    <t>-255.4 (9.5)</t>
+  </si>
+  <si>
+    <t>510.8 (19)</t>
+  </si>
+  <si>
+    <t>16.5 (2.2)</t>
+  </si>
+  <si>
+    <t>0.49 (0.4-0.56)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,22 +482,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -508,76 +508,76 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>-4.3</v>
+        <v>-1.3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>-26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
